--- a/Jogos_do_Dia/2023-06-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -133,15 +133,15 @@
     <t>Peru Primera División</t>
   </si>
   <si>
+    <t>Brazil Serie C</t>
+  </si>
+  <si>
+    <t>Bolivia LFPB</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Bolivia LFPB</t>
-  </si>
-  <si>
-    <t>Brazil Serie C</t>
-  </si>
-  <si>
     <t>Brazil Serie A</t>
   </si>
   <si>
@@ -181,15 +181,15 @@
     <t>Real Garcilaso</t>
   </si>
   <si>
+    <t>Operário PR</t>
+  </si>
+  <si>
+    <t>Independiente Petrolero</t>
+  </si>
+  <si>
     <t>Belgrano</t>
   </si>
   <si>
-    <t>Independiente Petrolero</t>
-  </si>
-  <si>
-    <t>Operário PR</t>
-  </si>
-  <si>
     <t>Vasco da Gama</t>
   </si>
   <si>
@@ -208,13 +208,13 @@
     <t>UTC Cajamarca</t>
   </si>
   <si>
+    <t>Aparecidense</t>
+  </si>
+  <si>
+    <t>Guabirá</t>
+  </si>
+  <si>
     <t>Banfield</t>
-  </si>
-  <si>
-    <t>Guabirá</t>
-  </si>
-  <si>
-    <t>Aparecidense</t>
   </si>
   <si>
     <t>Cuiabá</t>
@@ -712,52 +712,52 @@
         <v>59</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W2">
         <v>1.46</v>
@@ -819,13 +819,13 @@
         <v>60</v>
       </c>
       <c r="G3">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="H3">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="J3">
         <v>1.11</v>
@@ -834,16 +834,16 @@
         <v>6</v>
       </c>
       <c r="L3">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="M3">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="N3">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="O3">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P3">
         <v>1.53</v>
@@ -926,13 +926,13 @@
         <v>61</v>
       </c>
       <c r="G4">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="H4">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I4">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="J4">
         <v>1.01</v>
@@ -947,10 +947,10 @@
         <v>3.75</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="O4">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="P4">
         <v>1.35</v>
@@ -1033,13 +1033,13 @@
         <v>62</v>
       </c>
       <c r="G5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>3.6</v>
+        <v>3.43</v>
       </c>
       <c r="I5">
-        <v>4.5</v>
+        <v>3.69</v>
       </c>
       <c r="J5">
         <v>1.02</v>
@@ -1057,7 +1057,7 @@
         <v>1.9</v>
       </c>
       <c r="O5">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="P5">
         <v>1.4</v>
@@ -1238,7 +1238,7 @@
         <v>48</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>55</v>
@@ -1247,19 +1247,19 @@
         <v>64</v>
       </c>
       <c r="G7">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="H7">
-        <v>2.8</v>
+        <v>3.37</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>5.53</v>
       </c>
       <c r="J7">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>1.5</v>
@@ -1268,70 +1268,70 @@
         <v>2.45</v>
       </c>
       <c r="N7">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="O7">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P7">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="X7">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="Z7">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="AA7">
-        <v>2.55</v>
+        <v>3.18</v>
       </c>
       <c r="AB7">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>3.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1354,13 +1354,13 @@
         <v>65</v>
       </c>
       <c r="G8">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H8">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="I8">
-        <v>4.09</v>
+        <v>4.23</v>
       </c>
       <c r="J8">
         <v>1.05</v>
@@ -1375,10 +1375,10 @@
         <v>3.5</v>
       </c>
       <c r="N8">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="O8">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="P8">
         <v>1.4</v>
@@ -1452,7 +1452,7 @@
         <v>48</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -1461,19 +1461,19 @@
         <v>66</v>
       </c>
       <c r="G9">
-        <v>1.61</v>
+        <v>2.35</v>
       </c>
       <c r="H9">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I9">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>1.5</v>
@@ -1482,70 +1482,70 @@
         <v>2.45</v>
       </c>
       <c r="N9">
-        <v>2.41</v>
+        <v>2.47</v>
       </c>
       <c r="O9">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W9">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y9">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="Z9">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="AA9">
-        <v>3.18</v>
+        <v>2.55</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1568,13 +1568,13 @@
         <v>67</v>
       </c>
       <c r="G10">
-        <v>2.07</v>
+        <v>1.68</v>
       </c>
       <c r="H10">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
       <c r="I10">
-        <v>3.6</v>
+        <v>4.76</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1589,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O10">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1631,13 +1631,13 @@
         <v>3.51</v>
       </c>
       <c r="AB10">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AC10">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="AD10">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
       <c r="AE10">
         <v>0</v>

--- a/Jogos_do_Dia/2023-06-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -133,15 +133,15 @@
     <t>Peru Primera División</t>
   </si>
   <si>
+    <t>Argentina Primera División</t>
+  </si>
+  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
     <t>Bolivia LFPB</t>
   </si>
   <si>
-    <t>Argentina Primera División</t>
-  </si>
-  <si>
     <t>Brazil Serie A</t>
   </si>
   <si>
@@ -181,15 +181,15 @@
     <t>Real Garcilaso</t>
   </si>
   <si>
+    <t>Belgrano</t>
+  </si>
+  <si>
     <t>Operário PR</t>
   </si>
   <si>
     <t>Independiente Petrolero</t>
   </si>
   <si>
-    <t>Belgrano</t>
-  </si>
-  <si>
     <t>Vasco da Gama</t>
   </si>
   <si>
@@ -208,13 +208,13 @@
     <t>UTC Cajamarca</t>
   </si>
   <si>
+    <t>Banfield</t>
+  </si>
+  <si>
     <t>Aparecidense</t>
   </si>
   <si>
     <t>Guabirá</t>
-  </si>
-  <si>
-    <t>Banfield</t>
   </si>
   <si>
     <t>Cuiabá</t>
@@ -712,13 +712,13 @@
         <v>59</v>
       </c>
       <c r="G2">
-        <v>4.79</v>
+        <v>5.75</v>
       </c>
       <c r="H2">
-        <v>2.98</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="J2">
         <v>1.12</v>
@@ -727,16 +727,16 @@
         <v>6.25</v>
       </c>
       <c r="L2">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M2">
         <v>2.2</v>
       </c>
       <c r="N2">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="O2">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="P2">
         <v>1.03</v>
@@ -745,10 +745,10 @@
         <v>1.48</v>
       </c>
       <c r="R2">
-        <v>2.45</v>
+        <v>1.38</v>
       </c>
       <c r="S2">
-        <v>1.52</v>
+        <v>2.95</v>
       </c>
       <c r="T2">
         <v>2.1</v>
@@ -760,10 +760,10 @@
         <v>1.11</v>
       </c>
       <c r="W2">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X2">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="Y2">
         <v>1.24</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>60</v>
       </c>
       <c r="G3">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="H3">
-        <v>2.99</v>
+        <v>2.9</v>
       </c>
       <c r="I3">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
         <v>1.11</v>
@@ -840,10 +840,10 @@
         <v>2.33</v>
       </c>
       <c r="N3">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="O3">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="P3">
         <v>1.53</v>
@@ -867,10 +867,10 @@
         <v>1.38</v>
       </c>
       <c r="W3">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Y3">
         <v>1.37</v>
@@ -882,28 +882,28 @@
         <v>2.66</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -926,13 +926,13 @@
         <v>61</v>
       </c>
       <c r="G4">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="H4">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="J4">
         <v>1.01</v>
@@ -947,10 +947,10 @@
         <v>3.75</v>
       </c>
       <c r="N4">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="O4">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P4">
         <v>1.35</v>
@@ -974,10 +974,10 @@
         <v>1.44</v>
       </c>
       <c r="W4">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X4">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Y4">
         <v>1.67</v>
@@ -1033,13 +1033,13 @@
         <v>62</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="H5">
-        <v>3.43</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>3.69</v>
+        <v>4.75</v>
       </c>
       <c r="J5">
         <v>1.02</v>
@@ -1054,10 +1054,10 @@
         <v>3.2</v>
       </c>
       <c r="N5">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="O5">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="P5">
         <v>1.4</v>
@@ -1081,10 +1081,10 @@
         <v>2</v>
       </c>
       <c r="W5">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="Y5">
         <v>2.07</v>
@@ -1238,7 +1238,7 @@
         <v>48</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>55</v>
@@ -1247,19 +1247,19 @@
         <v>64</v>
       </c>
       <c r="G7">
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
       <c r="H7">
-        <v>3.37</v>
+        <v>2.8</v>
       </c>
       <c r="I7">
-        <v>5.53</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>1.5</v>
@@ -1268,70 +1268,70 @@
         <v>2.45</v>
       </c>
       <c r="N7">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="O7">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W7">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y7">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="Z7">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="AA7">
-        <v>3.18</v>
+        <v>2.55</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1345,7 +1345,7 @@
         <v>48</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
@@ -1354,76 +1354,76 @@
         <v>65</v>
       </c>
       <c r="G8">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="H8">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="I8">
-        <v>4.23</v>
+        <v>5.5</v>
       </c>
       <c r="J8">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>1.88</v>
+        <v>2.41</v>
       </c>
       <c r="O8">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="P8">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1.29</v>
+        <v>2.2</v>
       </c>
       <c r="X8">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.63</v>
+        <v>2.12</v>
       </c>
       <c r="Z8">
-        <v>0.96</v>
+        <v>1.06</v>
       </c>
       <c r="AA8">
-        <v>2.59</v>
+        <v>3.18</v>
       </c>
       <c r="AB8">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>48</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -1461,91 +1461,91 @@
         <v>66</v>
       </c>
       <c r="G9">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="H9">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="J9">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L9">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="M9">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>2.47</v>
+        <v>1.82</v>
       </c>
       <c r="O9">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="P9">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="Q9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S9">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T9">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="V9">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="W9">
+        <v>1.29</v>
+      </c>
+      <c r="X9">
+        <v>0.57</v>
+      </c>
+      <c r="Y9">
+        <v>1.63</v>
+      </c>
+      <c r="Z9">
+        <v>0.96</v>
+      </c>
+      <c r="AA9">
+        <v>2.59</v>
+      </c>
+      <c r="AB9">
+        <v>1.64</v>
+      </c>
+      <c r="AC9">
+        <v>8</v>
+      </c>
+      <c r="AD9">
+        <v>2.77</v>
+      </c>
+      <c r="AE9">
+        <v>1.28</v>
+      </c>
+      <c r="AF9">
+        <v>1.52</v>
+      </c>
+      <c r="AG9">
         <v>2</v>
       </c>
-      <c r="X9">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y9">
-        <v>1.25</v>
-      </c>
-      <c r="Z9">
-        <v>1.3</v>
-      </c>
-      <c r="AA9">
+      <c r="AH9">
         <v>2.55</v>
       </c>
-      <c r="AB9">
-        <v>1.91</v>
-      </c>
-      <c r="AC9">
-        <v>7.5</v>
-      </c>
-      <c r="AD9">
-        <v>2.1</v>
-      </c>
-      <c r="AE9">
-        <v>1.33</v>
-      </c>
-      <c r="AF9">
-        <v>1.6</v>
-      </c>
-      <c r="AG9">
-        <v>2.04</v>
-      </c>
-      <c r="AH9">
-        <v>2.75</v>
-      </c>
       <c r="AI9">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1568,25 +1568,25 @@
         <v>67</v>
       </c>
       <c r="G10">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H10">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="I10">
-        <v>4.76</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="N10">
         <v>2.2</v>
@@ -1595,25 +1595,25 @@
         <v>1.6</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="W10">
         <v>0.2</v>
@@ -1631,28 +1631,28 @@
         <v>3.51</v>
       </c>
       <c r="AB10">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AC10">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD10">
-        <v>2.95</v>
+        <v>3.07</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AG10">
         <v>1.83</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2.36</v>
       </c>
     </row>
   </sheetData>
